--- a/data/Game/List.xlsx
+++ b/data/Game/List.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">_articlesToRemove</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.209 Patch 2</t>
+    <t xml:space="preserve">EA 23.222 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">a ,an </t>
